--- a/django_vote/candidate_list/都道府県選挙区数.xlsx
+++ b/django_vote/candidate_list/都道府県選挙区数.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/twitter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/Desktop/vote/django_vote/candidate_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D21E6B-22C8-434F-9B47-A8DCAD0C1D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC0E4E-20F6-2441-B5AE-008C2A7EA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{84D2A2C5-59C1-CA4D-8D92-329EA974F8F4}"/>
+    <workbookView xWindow="-38400" yWindow="3820" windowWidth="19200" windowHeight="21100" xr2:uid="{84D2A2C5-59C1-CA4D-8D92-329EA974F8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -848,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC1A6B6-889B-CD48-A916-A45DE2738634}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/django_vote/candidate_list/都道府県選挙区数.xlsx
+++ b/django_vote/candidate_list/都道府県選挙区数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/Desktop/vote/django_vote/candidate_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/vote/django_vote/candidate_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC0E4E-20F6-2441-B5AE-008C2A7EA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E091B4FF-4DC6-5240-9393-2839100FBDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3820" windowWidth="19200" windowHeight="21100" xr2:uid="{84D2A2C5-59C1-CA4D-8D92-329EA974F8F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{84D2A2C5-59C1-CA4D-8D92-329EA974F8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -847,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC1A6B6-889B-CD48-A916-A45DE2738634}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1447,7 +1448,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
@@ -1463,11 +1464,11 @@
       </c>
       <c r="C48" s="1">
         <f>SUM(B41:B48)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <f>SUM(C48,C40,C31)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
         <v>59</v>
@@ -1479,15 +1480,15 @@
       </c>
       <c r="B49">
         <f>SUM(B2:B48)</f>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C49">
         <f>SUM(C2:C48)</f>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D49">
         <f>SUM(D2:D48)</f>
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1496,7 +1497,7 @@
       </c>
       <c r="B50">
         <f>B49/3</f>
-        <v>96</v>
+        <v>96.333333333333329</v>
       </c>
     </row>
   </sheetData>
